--- a/gas_phase_hcl_ccsd.xlsx
+++ b/gas_phase_hcl_ccsd.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/github_thesis_graph/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AE65E-5864-C344-B66B-FC6B1EA3C6DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0F579-5466-7E47-BC56-0004BE3951CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="520" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="5480" yWindow="700" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,10 +45,10 @@
     <t>Gasphase_p_hcl_acv3z_dc</t>
   </si>
   <si>
-    <t>Gasphase_p_hcl_d_aug_acv3z_x2c</t>
+    <t>Gasphase_p_hcl_d_aug_acv3z_x2camf</t>
   </si>
   <si>
-    <t>Gasphase_p_hcl_d_aug_acv4z_x2c</t>
+    <t>Gasphase_p_hcl_d_aug_acv4z_x2camf</t>
   </si>
 </sst>
 </file>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
   <dimension ref="B4:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gas_phase_hcl_ccsd.xlsx
+++ b/gas_phase_hcl_ccsd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF0F579-5466-7E47-BC56-0004BE3951CA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D20F4-9522-8747-934C-5F2F2B8BAE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5480" yWindow="700" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="4300" yWindow="620" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -402,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
   <dimension ref="B4:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gas_phase_hcl_ccsd.xlsx
+++ b/gas_phase_hcl_ccsd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0D20F4-9522-8747-934C-5F2F2B8BAE21}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A3A78-03B9-7B4C-8282-74AB66A91041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="620" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="-200" yWindow="920" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="B4:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gas_phase_hcl_ccsd.xlsx
+++ b/gas_phase_hcl_ccsd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6A3A78-03B9-7B4C-8282-74AB66A91041}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF7AC8B-F8EB-BB4B-BD1F-51060B5E2355}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-200" yWindow="920" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="B4:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/gas_phase_hcl_ccsd.xlsx
+++ b/gas_phase_hcl_ccsd.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/Thesis_graphs_binder/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/opoku/Desktop/HCl_project_graphs_binder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45713A3-F96C-CD4B-8397-73E610FF5EED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CF480-6054-A140-8BFD-2D9C9CF9E768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22440" windowHeight="14920" xr2:uid="{C1ADF71C-6822-4348-A305-5C9E8C2279D3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Gasphase_1s_hcl_acv3z_x2camf</t>
   </si>
@@ -42,13 +42,34 @@
     <t>Gasphase_p32_hcl_acv3z_x2camf</t>
   </si>
   <si>
-    <t>Gasphase_p_hcl_acv3z_dc</t>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2c_1s</t>
   </si>
   <si>
-    <t>Gasphase_p_hcl_d_aug_acv3z_x2camf</t>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2c_2s</t>
   </si>
   <si>
-    <t>Gasphase_p_hcl_d_aug_acv4z_x2camf</t>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2c_2p12</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2c_2p32</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2c_2p</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2cmmf_gaunt_1s</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2s</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p12</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p</t>
+  </si>
+  <si>
+    <t>eomip_hcl_bare_CVS_daug-acv3z_x2cmmf_gaunt_2p32</t>
   </si>
 </sst>
 </file>
@@ -400,15 +421,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216E1151-E718-094E-AE0A-6B8FFA0D72FC}">
-  <dimension ref="A4:H29"/>
+  <dimension ref="A4:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:I29"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -416,13 +437,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
         <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -433,8 +454,29 @@
       <c r="H4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2837.7403989999998</v>
       </c>
@@ -442,25 +484,46 @@
         <v>280.2954838</v>
       </c>
       <c r="C5">
+        <v>209.74323559999999</v>
+      </c>
+      <c r="D5">
+        <v>208.0453536</v>
+      </c>
+      <c r="E5">
         <v>208.89429459999999</v>
       </c>
-      <c r="D5">
-        <v>209.74323559999999</v>
-      </c>
-      <c r="E5">
-        <v>208.0453536</v>
-      </c>
       <c r="F5">
-        <v>208.9148697</v>
+        <v>2837.728325</v>
       </c>
       <c r="G5">
-        <v>208.89766090000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H5">
-        <v>208.8982312</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I5">
+        <v>208.0903783</v>
+      </c>
+      <c r="J5">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K5">
+        <v>2836.6853489999999</v>
+      </c>
+      <c r="L5">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M5">
+        <v>209.6027684</v>
+      </c>
+      <c r="N5">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O5">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2837.740401</v>
       </c>
@@ -468,25 +531,46 @@
         <v>280.29548299999999</v>
       </c>
       <c r="C6">
+        <v>209.74323509999999</v>
+      </c>
+      <c r="D6">
+        <v>208.04535319999999</v>
+      </c>
+      <c r="E6">
         <v>208.8942941</v>
       </c>
-      <c r="D6">
-        <v>209.74323509999999</v>
-      </c>
-      <c r="E6">
-        <v>208.04535319999999</v>
-      </c>
       <c r="F6">
-        <v>208.9148691</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G6">
-        <v>208.89766030000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H6">
-        <v>208.8982307</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I6">
+        <v>208.0903783</v>
+      </c>
+      <c r="J6">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K6">
+        <v>2836.6853510000001</v>
+      </c>
+      <c r="L6">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M6">
+        <v>209.6027684</v>
+      </c>
+      <c r="N6">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O6">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2837.740397</v>
       </c>
@@ -494,25 +578,46 @@
         <v>280.29548490000002</v>
       </c>
       <c r="C7">
+        <v>209.7432364</v>
+      </c>
+      <c r="D7">
+        <v>208.0453545</v>
+      </c>
+      <c r="E7">
         <v>208.8942955</v>
       </c>
-      <c r="D7">
-        <v>209.7432364</v>
-      </c>
-      <c r="E7">
-        <v>208.0453545</v>
-      </c>
       <c r="F7">
-        <v>208.9148706</v>
+        <v>2837.728325</v>
       </c>
       <c r="G7">
-        <v>208.89766180000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H7">
-        <v>208.8982321</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I7">
+        <v>208.0903783</v>
+      </c>
+      <c r="J7">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K7">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L7">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M7">
+        <v>209.6027684</v>
+      </c>
+      <c r="N7">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O7">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2837.740397</v>
       </c>
@@ -520,25 +625,46 @@
         <v>280.29548460000001</v>
       </c>
       <c r="C8">
+        <v>209.74323620000001</v>
+      </c>
+      <c r="D8">
+        <v>208.04535430000001</v>
+      </c>
+      <c r="E8">
         <v>208.89429519999999</v>
       </c>
-      <c r="D8">
-        <v>209.74323620000001</v>
-      </c>
-      <c r="E8">
-        <v>208.04535430000001</v>
-      </c>
       <c r="F8">
-        <v>208.91486929999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G8">
-        <v>208.89766159999999</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H8">
-        <v>208.89823200000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I8">
+        <v>208.0903783</v>
+      </c>
+      <c r="J8">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K8">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L8">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M8">
+        <v>209.6027684</v>
+      </c>
+      <c r="N8">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O8">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2837.7404000000001</v>
       </c>
@@ -546,25 +672,46 @@
         <v>280.29548319999998</v>
       </c>
       <c r="C9">
+        <v>209.7432354</v>
+      </c>
+      <c r="D9">
+        <v>208.04535319999999</v>
+      </c>
+      <c r="E9">
         <v>208.89429430000001</v>
       </c>
-      <c r="D9">
-        <v>209.7432354</v>
-      </c>
-      <c r="E9">
-        <v>208.04535319999999</v>
-      </c>
       <c r="F9">
-        <v>208.91487029999999</v>
+        <v>2837.728325</v>
       </c>
       <c r="G9">
-        <v>208.8976605</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H9">
-        <v>208.89823089999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I9">
+        <v>208.0903783</v>
+      </c>
+      <c r="J9">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K9">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L9">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M9">
+        <v>209.6027684</v>
+      </c>
+      <c r="N9">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O9">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2837.740397</v>
       </c>
@@ -572,25 +719,46 @@
         <v>280.29548460000001</v>
       </c>
       <c r="C10">
+        <v>209.74323620000001</v>
+      </c>
+      <c r="D10">
+        <v>208.04535430000001</v>
+      </c>
+      <c r="E10">
         <v>208.89429519999999</v>
       </c>
-      <c r="D10">
-        <v>209.74323620000001</v>
-      </c>
-      <c r="E10">
-        <v>208.04535430000001</v>
-      </c>
       <c r="F10">
-        <v>208.91487029999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G10">
-        <v>208.89766159999999</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H10">
-        <v>208.89823200000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I10">
+        <v>208.0903783</v>
+      </c>
+      <c r="J10">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K10">
+        <v>2836.6853489999999</v>
+      </c>
+      <c r="L10">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M10">
+        <v>209.6027684</v>
+      </c>
+      <c r="N10">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O10">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2837.7404000000001</v>
       </c>
@@ -598,25 +766,46 @@
         <v>280.29548349999999</v>
       </c>
       <c r="C11">
+        <v>209.7432354</v>
+      </c>
+      <c r="D11">
+        <v>208.04535340000001</v>
+      </c>
+      <c r="E11">
         <v>208.89429440000001</v>
       </c>
-      <c r="D11">
-        <v>209.7432354</v>
-      </c>
-      <c r="E11">
-        <v>208.04535340000001</v>
-      </c>
       <c r="F11">
-        <v>208.9148696</v>
+        <v>2837.728325</v>
       </c>
       <c r="G11">
-        <v>208.89766069999999</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H11">
-        <v>208.89823100000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I11">
+        <v>208.0903783</v>
+      </c>
+      <c r="J11">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K11">
+        <v>2836.6853510000001</v>
+      </c>
+      <c r="L11">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M11">
+        <v>209.6027684</v>
+      </c>
+      <c r="N11">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O11">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2837.740405</v>
       </c>
@@ -624,25 +813,46 @@
         <v>280.29548160000002</v>
       </c>
       <c r="C12">
+        <v>209.743234</v>
+      </c>
+      <c r="D12">
+        <v>208.04535190000001</v>
+      </c>
+      <c r="E12">
         <v>208.894293</v>
       </c>
-      <c r="D12">
-        <v>209.743234</v>
-      </c>
-      <c r="E12">
-        <v>208.04535190000001</v>
-      </c>
       <c r="F12">
-        <v>208.91486800000001</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G12">
-        <v>208.89765919999999</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H12">
-        <v>208.89822939999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I12">
+        <v>208.0903783</v>
+      </c>
+      <c r="J12">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K12">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L12">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M12">
+        <v>209.6027684</v>
+      </c>
+      <c r="N12">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O12">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2837.7404019999999</v>
       </c>
@@ -650,25 +860,46 @@
         <v>280.29548269999998</v>
       </c>
       <c r="C13">
+        <v>209.74323480000001</v>
+      </c>
+      <c r="D13">
+        <v>208.04535279999999</v>
+      </c>
+      <c r="E13">
         <v>208.89429380000001</v>
       </c>
-      <c r="D13">
-        <v>209.74323480000001</v>
-      </c>
-      <c r="E13">
-        <v>208.04535279999999</v>
-      </c>
       <c r="F13">
-        <v>208.9148687</v>
+        <v>2837.728325</v>
       </c>
       <c r="G13">
-        <v>208.89765990000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H13">
-        <v>208.8982302</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I13">
+        <v>208.0903783</v>
+      </c>
+      <c r="J13">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K13">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L13">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M13">
+        <v>209.6027684</v>
+      </c>
+      <c r="N13">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O13">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2837.7403960000001</v>
       </c>
@@ -676,25 +907,46 @@
         <v>280.29548490000002</v>
       </c>
       <c r="C14">
+        <v>209.74323670000001</v>
+      </c>
+      <c r="D14">
+        <v>208.0453545</v>
+      </c>
+      <c r="E14">
         <v>208.89429559999999</v>
       </c>
-      <c r="D14">
-        <v>209.74323670000001</v>
-      </c>
-      <c r="E14">
-        <v>208.0453545</v>
-      </c>
       <c r="F14">
-        <v>208.91487069999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G14">
-        <v>208.89766180000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H14">
-        <v>208.89823229999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I14">
+        <v>208.0903783</v>
+      </c>
+      <c r="J14">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K14">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L14">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M14">
+        <v>209.6027684</v>
+      </c>
+      <c r="N14">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O14">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2837.7404029999998</v>
       </c>
@@ -702,25 +954,46 @@
         <v>280.29548210000002</v>
       </c>
       <c r="C15">
+        <v>209.7432345</v>
+      </c>
+      <c r="D15">
+        <v>208.04535250000001</v>
+      </c>
+      <c r="E15">
         <v>208.8942935</v>
       </c>
-      <c r="D15">
-        <v>209.7432345</v>
-      </c>
-      <c r="E15">
-        <v>208.04535250000001</v>
-      </c>
       <c r="F15">
-        <v>208.91486850000001</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G15">
-        <v>208.8976596</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H15">
-        <v>208.89823000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I15">
+        <v>208.0903783</v>
+      </c>
+      <c r="J15">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K15">
+        <v>2836.6853489999999</v>
+      </c>
+      <c r="L15">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M15">
+        <v>209.6027684</v>
+      </c>
+      <c r="N15">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O15">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2837.740401</v>
       </c>
@@ -728,25 +1001,46 @@
         <v>280.29548299999999</v>
       </c>
       <c r="C16">
+        <v>209.74323509999999</v>
+      </c>
+      <c r="D16">
+        <v>208.04535300000001</v>
+      </c>
+      <c r="E16">
         <v>208.8942941</v>
       </c>
-      <c r="D16">
-        <v>209.74323509999999</v>
-      </c>
-      <c r="E16">
-        <v>208.04535300000001</v>
-      </c>
       <c r="F16">
-        <v>208.91486900000001</v>
+        <v>2837.728325</v>
       </c>
       <c r="G16">
-        <v>208.89766030000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H16">
-        <v>208.8982307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I16">
+        <v>208.0903783</v>
+      </c>
+      <c r="J16">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K16">
+        <v>2836.6853510000001</v>
+      </c>
+      <c r="L16">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M16">
+        <v>209.6027684</v>
+      </c>
+      <c r="N16">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O16">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2837.7404019999999</v>
       </c>
@@ -754,25 +1048,46 @@
         <v>280.29548269999998</v>
       </c>
       <c r="C17">
+        <v>209.74323480000001</v>
+      </c>
+      <c r="D17">
+        <v>208.04535279999999</v>
+      </c>
+      <c r="E17">
         <v>208.89429380000001</v>
       </c>
-      <c r="D17">
-        <v>209.74323480000001</v>
-      </c>
-      <c r="E17">
-        <v>208.04535279999999</v>
-      </c>
       <c r="F17">
-        <v>208.91486879999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G17">
-        <v>208.8976601</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H17">
-        <v>208.89823039999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I17">
+        <v>208.0903783</v>
+      </c>
+      <c r="J17">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K17">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L17">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M17">
+        <v>209.6027684</v>
+      </c>
+      <c r="N17">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O17">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2837.7403960000001</v>
       </c>
@@ -780,25 +1095,46 @@
         <v>280.29548490000002</v>
       </c>
       <c r="C18">
+        <v>209.74323670000001</v>
+      </c>
+      <c r="D18">
+        <v>208.0453545</v>
+      </c>
+      <c r="E18">
         <v>208.89429559999999</v>
       </c>
-      <c r="D18">
-        <v>209.74323670000001</v>
-      </c>
-      <c r="E18">
-        <v>208.0453545</v>
-      </c>
       <c r="F18">
-        <v>208.91487069999999</v>
+        <v>2837.728325</v>
       </c>
       <c r="G18">
-        <v>208.89766180000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H18">
-        <v>208.89823229999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I18">
+        <v>208.0903783</v>
+      </c>
+      <c r="J18">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K18">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L18">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M18">
+        <v>209.6027684</v>
+      </c>
+      <c r="N18">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O18">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2837.7404019999999</v>
       </c>
@@ -806,25 +1142,46 @@
         <v>280.29548299999999</v>
       </c>
       <c r="C19">
+        <v>209.74323480000001</v>
+      </c>
+      <c r="D19">
+        <v>208.04535290000001</v>
+      </c>
+      <c r="E19">
         <v>208.89429390000001</v>
       </c>
-      <c r="D19">
-        <v>209.74323480000001</v>
-      </c>
-      <c r="E19">
-        <v>208.04535290000001</v>
-      </c>
       <c r="F19">
-        <v>208.91486900000001</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G19">
-        <v>208.8976601</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H19">
-        <v>208.89823050000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I19">
+        <v>208.0903783</v>
+      </c>
+      <c r="J19">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K19">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L19">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M19">
+        <v>209.6027684</v>
+      </c>
+      <c r="N19">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O19">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2837.7404040000001</v>
       </c>
@@ -832,25 +1189,46 @@
         <v>280.29548190000003</v>
       </c>
       <c r="C20">
+        <v>209.74323430000001</v>
+      </c>
+      <c r="D20">
+        <v>208.0453522</v>
+      </c>
+      <c r="E20">
         <v>208.89429319999999</v>
       </c>
-      <c r="D20">
-        <v>209.74323430000001</v>
-      </c>
-      <c r="E20">
-        <v>208.0453522</v>
-      </c>
       <c r="F20">
-        <v>208.9148682</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G20">
-        <v>208.89765929999999</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H20">
-        <v>208.8982297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I20">
+        <v>208.0903783</v>
+      </c>
+      <c r="J20">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K20">
+        <v>2836.6853489999999</v>
+      </c>
+      <c r="L20">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M20">
+        <v>209.6027684</v>
+      </c>
+      <c r="N20">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O20">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2837.652439</v>
       </c>
@@ -858,25 +1236,46 @@
         <v>280.31620029999999</v>
       </c>
       <c r="C21">
+        <v>209.75893199999999</v>
+      </c>
+      <c r="D21">
+        <v>208.06090710000001</v>
+      </c>
+      <c r="E21">
         <v>208.90991959999999</v>
       </c>
-      <c r="D21">
-        <v>209.75893199999999</v>
-      </c>
-      <c r="E21">
-        <v>208.06090710000001</v>
-      </c>
       <c r="F21">
-        <v>208.93056369999999</v>
+        <v>2837.728325</v>
       </c>
       <c r="G21">
-        <v>208.91344330000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H21">
-        <v>208.91504979999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I21">
+        <v>208.0903783</v>
+      </c>
+      <c r="J21">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K21">
+        <v>2836.6853510000001</v>
+      </c>
+      <c r="L21">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M21">
+        <v>209.6027684</v>
+      </c>
+      <c r="N21">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O21">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2837.7404019999999</v>
       </c>
@@ -884,25 +1283,46 @@
         <v>280.29548269999998</v>
       </c>
       <c r="C22">
+        <v>209.74323480000001</v>
+      </c>
+      <c r="D22">
+        <v>208.04535279999999</v>
+      </c>
+      <c r="E22">
         <v>208.89429380000001</v>
       </c>
-      <c r="D22">
-        <v>209.74323480000001</v>
-      </c>
-      <c r="E22">
-        <v>208.04535279999999</v>
-      </c>
       <c r="F22">
-        <v>208.9148687</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G22">
-        <v>208.89765990000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H22">
-        <v>208.8982302</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I22">
+        <v>208.0903783</v>
+      </c>
+      <c r="J22">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K22">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L22">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M22">
+        <v>209.6027684</v>
+      </c>
+      <c r="N22">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O22">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2837.7404029999998</v>
       </c>
@@ -910,25 +1330,46 @@
         <v>280.29548240000003</v>
       </c>
       <c r="C23">
+        <v>209.7432345</v>
+      </c>
+      <c r="D23">
+        <v>208.0871314</v>
+      </c>
+      <c r="E23">
         <v>208.91518300000001</v>
       </c>
-      <c r="D23">
-        <v>209.7432345</v>
-      </c>
-      <c r="E23">
-        <v>208.0871314</v>
-      </c>
       <c r="F23">
-        <v>208.91486860000001</v>
+        <v>2837.728325</v>
       </c>
       <c r="G23">
-        <v>208.89765980000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H23">
-        <v>208.89823010000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I23">
+        <v>208.0903783</v>
+      </c>
+      <c r="J23">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K23">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L23">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M23">
+        <v>209.6027684</v>
+      </c>
+      <c r="N23">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O23">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2837.740401</v>
       </c>
@@ -936,25 +1377,46 @@
         <v>280.29548349999999</v>
       </c>
       <c r="C24">
+        <v>209.74323509999999</v>
+      </c>
+      <c r="D24">
+        <v>208.04535319999999</v>
+      </c>
+      <c r="E24">
         <v>208.8942941</v>
       </c>
-      <c r="D24">
-        <v>209.74323509999999</v>
-      </c>
-      <c r="E24">
-        <v>208.04535319999999</v>
-      </c>
       <c r="F24">
-        <v>208.91486929999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G24">
-        <v>208.89766040000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H24">
-        <v>208.8982307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I24">
+        <v>208.0903783</v>
+      </c>
+      <c r="J24">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K24">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L24">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M24">
+        <v>209.6027684</v>
+      </c>
+      <c r="N24">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O24">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2837.740401</v>
       </c>
@@ -962,25 +1424,46 @@
         <v>280.29548460000001</v>
       </c>
       <c r="C25">
+        <v>209.7432354</v>
+      </c>
+      <c r="D25">
+        <v>208.04535319999999</v>
+      </c>
+      <c r="E25">
         <v>208.89429430000001</v>
       </c>
-      <c r="D25">
-        <v>209.7432354</v>
-      </c>
-      <c r="E25">
-        <v>208.04535319999999</v>
-      </c>
       <c r="F25">
-        <v>208.91486929999999</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G25">
-        <v>208.89766040000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H25">
-        <v>208.89823079999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I25">
+        <v>208.0903783</v>
+      </c>
+      <c r="J25">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K25">
+        <v>2836.6853489999999</v>
+      </c>
+      <c r="L25">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M25">
+        <v>209.6027684</v>
+      </c>
+      <c r="N25">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O25">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2837.7404069999998</v>
       </c>
@@ -988,25 +1471,46 @@
         <v>280.29548080000001</v>
       </c>
       <c r="C26">
+        <v>209.74323319999999</v>
+      </c>
+      <c r="D26">
+        <v>208.04535129999999</v>
+      </c>
+      <c r="E26">
         <v>208.8942922</v>
       </c>
-      <c r="D26">
-        <v>209.74323319999999</v>
-      </c>
-      <c r="E26">
-        <v>208.04535129999999</v>
-      </c>
       <c r="F26">
-        <v>208.9148673</v>
+        <v>2837.728325</v>
       </c>
       <c r="G26">
-        <v>208.89765850000001</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H26">
-        <v>208.8982288</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I26">
+        <v>208.0903783</v>
+      </c>
+      <c r="J26">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K26">
+        <v>2836.6853510000001</v>
+      </c>
+      <c r="L26">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M26">
+        <v>209.6027684</v>
+      </c>
+      <c r="N26">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O26">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2837.7404029999998</v>
       </c>
@@ -1014,25 +1518,46 @@
         <v>280.29548240000003</v>
       </c>
       <c r="C27">
+        <v>209.7432345</v>
+      </c>
+      <c r="D27">
+        <v>208.04535250000001</v>
+      </c>
+      <c r="E27">
         <v>208.8942935</v>
       </c>
-      <c r="D27">
-        <v>209.7432345</v>
-      </c>
-      <c r="E27">
-        <v>208.04535250000001</v>
-      </c>
       <c r="F27">
-        <v>208.91486860000001</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G27">
-        <v>208.89765980000001</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H27">
-        <v>208.89823010000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I27">
+        <v>208.0903783</v>
+      </c>
+      <c r="J27">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K27">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L27">
+        <v>280.27792119999998</v>
+      </c>
+      <c r="M27">
+        <v>209.6027684</v>
+      </c>
+      <c r="N27">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O27">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2837.7403989999998</v>
       </c>
@@ -1040,25 +1565,46 @@
         <v>280.29548399999999</v>
       </c>
       <c r="C28">
+        <v>209.7432359</v>
+      </c>
+      <c r="D28">
+        <v>208.04535379999999</v>
+      </c>
+      <c r="E28">
         <v>208.89429490000001</v>
       </c>
-      <c r="D28">
-        <v>209.7432359</v>
-      </c>
-      <c r="E28">
-        <v>208.04535379999999</v>
-      </c>
       <c r="F28">
-        <v>208.91486990000001</v>
+        <v>2837.728325</v>
       </c>
       <c r="G28">
-        <v>208.89766109999999</v>
+        <v>280.29731399999997</v>
       </c>
       <c r="H28">
-        <v>208.8982316</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+        <v>209.7466628</v>
+      </c>
+      <c r="I28">
+        <v>208.0903783</v>
+      </c>
+      <c r="J28">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K28">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L28">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M28">
+        <v>209.6027684</v>
+      </c>
+      <c r="N28">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O28">
+        <v>208.80891460000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2837.740397</v>
       </c>
@@ -1066,22 +1612,43 @@
         <v>280.29548490000002</v>
       </c>
       <c r="C29">
+        <v>209.7432364</v>
+      </c>
+      <c r="D29">
+        <v>208.0453545</v>
+      </c>
+      <c r="E29">
         <v>208.8942955</v>
       </c>
-      <c r="D29">
-        <v>209.7432364</v>
-      </c>
-      <c r="E29">
-        <v>208.0453545</v>
-      </c>
       <c r="F29">
-        <v>208.9148706</v>
+        <v>2837.7283259999999</v>
       </c>
       <c r="G29">
-        <v>208.89766169999999</v>
+        <v>280.29731450000003</v>
       </c>
       <c r="H29">
-        <v>208.8982321</v>
+        <v>209.7466628</v>
+      </c>
+      <c r="I29">
+        <v>208.0903783</v>
+      </c>
+      <c r="J29">
+        <v>208.91852059999999</v>
+      </c>
+      <c r="K29">
+        <v>2836.6853500000002</v>
+      </c>
+      <c r="L29">
+        <v>280.27792069999998</v>
+      </c>
+      <c r="M29">
+        <v>209.6027684</v>
+      </c>
+      <c r="N29">
+        <v>208.01506090000001</v>
+      </c>
+      <c r="O29">
+        <v>208.80891460000001</v>
       </c>
     </row>
   </sheetData>
